--- a/Ranalysis/Data/Coral_transplant_key.xlsx
+++ b/Ranalysis/Data/Coral_transplant_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talimass/Library/CloudStorage/GoogleDrive-cbp@marsci.haifa.ac.il/My Drive/Cayman_NSF_BSF_November 2022/Transplantation data analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talimass/Documents/Documents - MacBook Pro/GitHub/Cayman-translocation/Ranalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06343CC0-66A0-5F44-BD18-BB1A202BD8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BD9E5-BBBE-2C4C-B2AA-EEA7BCED5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30300" yWindow="-1340" windowWidth="30240" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34060" yWindow="-1460" windowWidth="23660" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
   <si>
     <t>site</t>
   </si>
@@ -340,13 +340,16 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +375,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -449,17 +471,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -676,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -730,6 +755,9 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -830,6 +858,9 @@
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -890,7 +921,7 @@
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -913,6 +944,9 @@
       <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -933,7 +967,7 @@
       <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1017,7 +1051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1156,8 +1190,11 @@
       <c r="F23" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1196,8 +1233,11 @@
       <c r="F25" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -1256,8 +1296,11 @@
       <c r="F28" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1296,8 +1339,11 @@
       <c r="F30" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
@@ -1336,11 +1382,11 @@
       <c r="F32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1359,8 +1405,11 @@
       <c r="F33" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -1419,8 +1468,11 @@
       <c r="F36" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
@@ -1439,8 +1491,11 @@
       <c r="F37" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1459,11 +1514,11 @@
       <c r="F38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
@@ -1502,8 +1557,11 @@
       <c r="F40" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>6</v>
       </c>
@@ -1523,7 +1581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -1563,7 +1621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>68</v>
       </c>
@@ -1583,7 +1641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>68</v>
       </c>
@@ -1606,7 +1664,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>68</v>
       </c>
@@ -1626,7 +1684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
@@ -1649,7 +1707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>68</v>
       </c>
